--- a/data-raw/parametry_skrot_do_pracy.xlsx
+++ b/data-raw/parametry_skrot_do_pracy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="986">
   <si>
     <t xml:space="preserve">fullname</t>
   </si>
@@ -1445,168 +1445,300 @@
     <t xml:space="preserve">StatusRWSN</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Status of s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">now water equivalent</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SADD</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSADD</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Status of number of days with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> rime </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SADZ</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSADZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of length of rime </t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SGRN</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSGRN</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil state</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SMDB</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSMDB</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of daily precipitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SNEG</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSNEG</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of length of snowing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SNID</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSNID</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with snowing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru STD</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSTD</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of daily mean air temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru STM</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSTM</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of monthly mean air temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SUMM</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSUMM</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of monthly total precipitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SUUS</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSUUS</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of monthly total insolation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SZRD</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSZRD</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Status of number of days with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hoarfrost</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru SZRO</t>
   </si>
   <si>
     <t xml:space="preserve">StatusSZRO</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of length of hoarfrost</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TEMP</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTEMP</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of air temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TG05</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTG05</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil temperature 5 cm below ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TG10</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTG10</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil temperature 10 cm below ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TG100</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTG100</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil temperature 100 cm below ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TG20</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTG20</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil temperature 20 cm below ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TG50</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTG50</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of soil temperature 50 cm below ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TGMI</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTGMI</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of minimum soil temperature in last 12 hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TMAX</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTMAX</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of maximum air temperature in last 12 hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TMIN</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTMIN</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of minimum air temperature in last 12 hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TMNG</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTMNG</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of minimum near surface air temperature </t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TMNS</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTMNS</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of mean minimum air temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TMXS</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTMXS</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of mean maximum air temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TPTR</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTPTR</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of dew point temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru TTZW</t>
   </si>
   <si>
     <t xml:space="preserve">StatusTTZW</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of wet thermometer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru USL</t>
   </si>
   <si>
     <t xml:space="preserve">StatusUSL</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of insolation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru USLN</t>
   </si>
   <si>
@@ -1619,48 +1751,72 @@
     <t xml:space="preserve">StatusW10D</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with wind speed above 10 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru W15D</t>
   </si>
   <si>
     <t xml:space="preserve">StatusW15D</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with wind speed above 15 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WID</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWID</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of visibility (human)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WIDA</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWIDA</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of cloudiness [octants]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WIDO</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of visibility (automated)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WLGS</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWLGS</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of daily mean relative humidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WLGW</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWLGW</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of relative humidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WO6G</t>
   </si>
   <si>
     <t xml:space="preserve">StatusWO6G</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of 6 hour precipitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru WODZ</t>
   </si>
   <si>
@@ -1673,58 +1829,88 @@
     <t xml:space="preserve">StatusWONO</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of nightly precipitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZAMD</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZAMD</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with fogginess</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZAND</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZAND</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with low snowstorm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZAWD</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZAWD</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with high snowstorm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZMED</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZMED</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of number of days with hazyness</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZMET</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZMET</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of duration of hazyness</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZMGL</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZMGL</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of duration of fogginess</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZMNI</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZMNI</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of duration of low snowstorm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZMWS</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZMWS</t>
   </si>
   <si>
+    <t xml:space="preserve">Status of duration of high snowstorm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status pomiaru ZOGK</t>
   </si>
   <si>
     <t xml:space="preserve">StatusZOGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status of total cloudiness [0-10 before 1988 and 0-8 since 1989]</t>
   </si>
   <si>
     <t xml:space="preserve">Suma dobowa opadow [mm]</t>
@@ -2850,11 +3036,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2873,9 +3060,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2920,7 +3113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2929,11 +3122,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3016,8 +3213,8 @@
   </sheetPr>
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C162" activeCellId="0" sqref="C162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C189" activeCellId="0" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4806,837 +5003,981 @@
       <c r="B162" s="0" t="s">
         <v>473</v>
       </c>
+      <c r="C162" s="0" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>485</v>
+        <v>491</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>489</v>
+        <v>497</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>491</v>
+        <v>500</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>495</v>
+        <v>506</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>499</v>
+        <v>512</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>505</v>
+        <v>521</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>507</v>
+        <v>524</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>509</v>
+        <v>527</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>511</v>
+        <v>530</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>513</v>
+        <v>533</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>515</v>
+        <v>536</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>517</v>
+        <v>539</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>521</v>
+        <v>545</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>523</v>
+        <v>548</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>525</v>
+        <v>551</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>527</v>
+        <v>554</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>529</v>
+        <v>557</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>531</v>
+        <v>559</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>533</v>
+        <v>562</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>535</v>
+        <v>565</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>537</v>
+        <v>568</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>539</v>
+        <v>571</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>541</v>
+        <v>574</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>543</v>
+        <v>577</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>545</v>
+        <v>580</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>547</v>
+        <v>583</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>549</v>
+        <v>585</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>551</v>
+        <v>588</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>553</v>
+        <v>591</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>557</v>
+        <v>597</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>559</v>
+        <v>600</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>561</v>
+        <v>603</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>563</v>
+        <v>606</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>565</v>
+        <v>609</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>567</v>
+        <v>612</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>582</v>
+        <v>628</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>583</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>584</v>
+        <v>630</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>673</v>
+        <v>719</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>674</v>
+        <v>720</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>204</v>
@@ -5647,7 +5988,7 @@
     </row>
     <row r="252" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>204</v>
@@ -5658,13 +5999,13 @@
     </row>
     <row r="253" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -5685,8 +6026,8 @@
   </sheetPr>
   <dimension ref="A1:A250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5696,1248 +6037,1248 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>691</v>
+      <c r="A1" s="3" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>692</v>
+      <c r="A2" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>693</v>
+      <c r="A3" s="3" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>694</v>
+      <c r="A4" s="3" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>695</v>
+      <c r="A5" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>696</v>
+      <c r="A6" s="3" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>697</v>
+      <c r="A7" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>698</v>
+      <c r="A8" s="3" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>699</v>
+      <c r="A9" s="3" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>700</v>
+      <c r="A10" s="3" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>701</v>
+      <c r="A11" s="3" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>702</v>
+      <c r="A12" s="3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>703</v>
+      <c r="A13" s="3" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>704</v>
+      <c r="A14" s="3" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>705</v>
+      <c r="A15" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>706</v>
+      <c r="A16" s="3" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>707</v>
+      <c r="A17" s="3" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>708</v>
+      <c r="A18" s="3" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>709</v>
+      <c r="A19" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>710</v>
+      <c r="A20" s="3" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>711</v>
+      <c r="A21" s="3" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>712</v>
+      <c r="A22" s="3" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>713</v>
+      <c r="A23" s="3" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>714</v>
+      <c r="A24" s="3" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>715</v>
+      <c r="A25" s="3" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>716</v>
+      <c r="A26" s="3" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>717</v>
+      <c r="A27" s="3" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>718</v>
+      <c r="A28" s="3" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>719</v>
+      <c r="A29" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>720</v>
+      <c r="A30" s="3" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>721</v>
+      <c r="A31" s="3" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>722</v>
+      <c r="A32" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>723</v>
+      <c r="A33" s="3" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>724</v>
+      <c r="A34" s="3" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>725</v>
+      <c r="A35" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>726</v>
+      <c r="A36" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>727</v>
+      <c r="A37" s="3" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>728</v>
+      <c r="A38" s="3" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>729</v>
+      <c r="A39" s="3" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>730</v>
+      <c r="A40" s="3" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>731</v>
+      <c r="A41" s="3" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>732</v>
+      <c r="A42" s="3" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>733</v>
+      <c r="A43" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>734</v>
+      <c r="A44" s="3" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>735</v>
+      <c r="A45" s="3" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>736</v>
+      <c r="A46" s="3" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>737</v>
+      <c r="A47" s="3" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>738</v>
+      <c r="A48" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>739</v>
+      <c r="A49" s="3" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>740</v>
+      <c r="A50" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>741</v>
+      <c r="A51" s="3" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>742</v>
+      <c r="A52" s="3" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>743</v>
+      <c r="A53" s="3" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>744</v>
+      <c r="A54" s="3" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>745</v>
+      <c r="A55" s="3" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>746</v>
+      <c r="A56" s="3" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>747</v>
+      <c r="A57" s="3" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>748</v>
+      <c r="A58" s="3" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>749</v>
+      <c r="A59" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>750</v>
+      <c r="A60" s="3" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>751</v>
+      <c r="A61" s="3" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>752</v>
+      <c r="A62" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>753</v>
+      <c r="A63" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>754</v>
+      <c r="A64" s="3" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>755</v>
+      <c r="A65" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>756</v>
+      <c r="A66" s="3" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>757</v>
+      <c r="A67" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>758</v>
+      <c r="A68" s="3" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>759</v>
+      <c r="A69" s="3" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>760</v>
+      <c r="A70" s="3" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>761</v>
+      <c r="A71" s="3" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>762</v>
+      <c r="A72" s="3" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>763</v>
+      <c r="A73" s="3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>764</v>
+      <c r="A74" s="3" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>765</v>
+      <c r="A75" s="3" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>766</v>
+      <c r="A76" s="3" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>767</v>
+      <c r="A77" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>768</v>
+      <c r="A78" s="3" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>769</v>
+      <c r="A79" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>770</v>
+      <c r="A80" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>771</v>
+      <c r="A81" s="3" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>772</v>
+      <c r="A82" s="3" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>773</v>
+      <c r="A83" s="3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>774</v>
+      <c r="A84" s="3" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>775</v>
+      <c r="A85" s="3" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>776</v>
+      <c r="A86" s="3" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>777</v>
+      <c r="A87" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>778</v>
+      <c r="A88" s="3" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>779</v>
+      <c r="A89" s="3" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>780</v>
+      <c r="A90" s="3" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>781</v>
+      <c r="A91" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>782</v>
+      <c r="A92" s="3" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>783</v>
+      <c r="A93" s="3" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>784</v>
+      <c r="A94" s="3" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>785</v>
+      <c r="A95" s="3" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>786</v>
+      <c r="A96" s="3" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>787</v>
+      <c r="A97" s="3" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>788</v>
+      <c r="A98" s="3" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>789</v>
+      <c r="A99" s="3" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>790</v>
+      <c r="A100" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>791</v>
+      <c r="A101" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>792</v>
+      <c r="A102" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>793</v>
+      <c r="A103" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>794</v>
+      <c r="A104" s="3" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>795</v>
+      <c r="A105" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>796</v>
+      <c r="A106" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>797</v>
+      <c r="A107" s="3" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>798</v>
+      <c r="A108" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>799</v>
+      <c r="A109" s="3" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>800</v>
+      <c r="A110" s="3" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>801</v>
+      <c r="A111" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>802</v>
+      <c r="A112" s="3" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>803</v>
+      <c r="A113" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>804</v>
+      <c r="A114" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>805</v>
+      <c r="A115" s="3" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>806</v>
+      <c r="A116" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>807</v>
+      <c r="A117" s="3" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>808</v>
+      <c r="A118" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>809</v>
+      <c r="A119" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
-        <v>810</v>
+      <c r="A120" s="3" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>811</v>
+      <c r="A121" s="3" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>812</v>
+      <c r="A122" s="3" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>813</v>
+      <c r="A123" s="3" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>814</v>
+      <c r="A124" s="3" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>815</v>
+      <c r="A125" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>816</v>
+      <c r="A126" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>817</v>
+      <c r="A127" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>818</v>
+      <c r="A128" s="3" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>819</v>
+      <c r="A129" s="3" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>820</v>
+      <c r="A130" s="3" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>821</v>
+      <c r="A131" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>822</v>
+      <c r="A132" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>823</v>
+      <c r="A133" s="3" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>824</v>
+      <c r="A134" s="3" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>825</v>
+      <c r="A135" s="3" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>826</v>
+      <c r="A136" s="3" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>827</v>
+      <c r="A137" s="3" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>828</v>
+      <c r="A138" s="3" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>829</v>
+      <c r="A139" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>830</v>
+      <c r="A140" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>831</v>
+      <c r="A141" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
-        <v>832</v>
+      <c r="A142" s="3" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>833</v>
+      <c r="A143" s="3" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>834</v>
+      <c r="A144" s="3" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>835</v>
+      <c r="A145" s="3" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>836</v>
+      <c r="A146" s="3" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>837</v>
+      <c r="A147" s="3" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>838</v>
+      <c r="A148" s="3" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>839</v>
+      <c r="A149" s="3" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>840</v>
+      <c r="A150" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>841</v>
+      <c r="A151" s="3" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>842</v>
+      <c r="A152" s="3" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>843</v>
+      <c r="A153" s="3" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>844</v>
+      <c r="A154" s="3" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>845</v>
+      <c r="A155" s="3" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>846</v>
+      <c r="A156" s="3" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>847</v>
+      <c r="A157" s="3" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>848</v>
+      <c r="A158" s="3" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>849</v>
+      <c r="A159" s="3" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>850</v>
+      <c r="A160" s="3" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>851</v>
+      <c r="A161" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
-        <v>852</v>
+      <c r="A162" s="4" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>853</v>
+      <c r="A163" s="3" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>854</v>
+      <c r="A164" s="3" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>855</v>
+      <c r="A165" s="3" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>856</v>
+      <c r="A166" s="3" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>857</v>
+      <c r="A167" s="3" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>858</v>
+      <c r="A168" s="3" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>859</v>
+      <c r="A169" s="3" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>860</v>
+      <c r="A170" s="3" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>861</v>
+      <c r="A171" s="3" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>862</v>
+      <c r="A172" s="3" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>863</v>
+      <c r="A173" s="3" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>864</v>
+      <c r="A174" s="3" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>865</v>
+      <c r="A175" s="3" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>866</v>
+      <c r="A176" s="3" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>867</v>
+      <c r="A177" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>868</v>
+      <c r="A178" s="3" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
-        <v>869</v>
+      <c r="A179" s="3" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
-        <v>870</v>
+      <c r="A180" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>871</v>
+      <c r="A181" s="3" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>872</v>
+      <c r="A182" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>873</v>
+      <c r="A183" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
-        <v>874</v>
+      <c r="A184" s="3" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
-        <v>875</v>
+      <c r="A185" s="3" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>876</v>
+      <c r="A186" s="3" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
-        <v>877</v>
+      <c r="A187" s="3" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>878</v>
+      <c r="A188" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>879</v>
+      <c r="A189" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>880</v>
+      <c r="A190" s="3" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>881</v>
+      <c r="A191" s="3" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>882</v>
+      <c r="A192" s="3" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>883</v>
+      <c r="A193" s="3" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>884</v>
+      <c r="A194" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>885</v>
+      <c r="A195" s="3" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>886</v>
+      <c r="A196" s="3" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>887</v>
+      <c r="A197" s="3" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>888</v>
+      <c r="A198" s="3" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>889</v>
+      <c r="A199" s="3" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>890</v>
+      <c r="A200" s="3" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>891</v>
+      <c r="A201" s="3" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>892</v>
+      <c r="A202" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
-        <v>893</v>
+      <c r="A203" s="3" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>894</v>
+      <c r="A204" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
-        <v>895</v>
+      <c r="A205" s="3" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>896</v>
+      <c r="A206" s="3" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>897</v>
+      <c r="A207" s="3" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
-        <v>898</v>
+      <c r="A208" s="3" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
-        <v>899</v>
+      <c r="A209" s="3" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>900</v>
+      <c r="A210" s="3" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>901</v>
+      <c r="A211" s="3" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
-        <v>902</v>
+      <c r="A212" s="3" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
-        <v>903</v>
+      <c r="A213" s="3" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>904</v>
+      <c r="A214" s="3" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
-        <v>905</v>
+      <c r="A215" s="3" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>906</v>
+      <c r="A216" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>907</v>
+      <c r="A217" s="3" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>908</v>
+      <c r="A218" s="3" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>909</v>
+      <c r="A219" s="3" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>910</v>
+      <c r="A220" s="3" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
-        <v>911</v>
+      <c r="A221" s="3" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
-        <v>912</v>
+      <c r="A222" s="3" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
-        <v>913</v>
+      <c r="A223" s="3" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>914</v>
+      <c r="A224" s="3" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
-        <v>915</v>
+      <c r="A225" s="3" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
-        <v>916</v>
+      <c r="A226" s="3" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
-        <v>917</v>
+      <c r="A227" s="3" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
-        <v>918</v>
+      <c r="A228" s="3" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>919</v>
+      <c r="A229" s="3" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
-        <v>920</v>
+      <c r="A230" s="3" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
-        <v>921</v>
+      <c r="A231" s="3" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
-        <v>922</v>
+      <c r="A232" s="3" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
-        <v>923</v>
+      <c r="A233" s="3" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
-        <v>924</v>
+      <c r="A234" s="3" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
-        <v>925</v>
+      <c r="A235" s="3" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
-        <v>926</v>
+      <c r="A236" s="3" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
-        <v>927</v>
+      <c r="A237" s="3" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
-        <v>928</v>
+      <c r="A238" s="3" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
-        <v>929</v>
+      <c r="A239" s="3" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
-        <v>930</v>
+      <c r="A240" s="3" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
-        <v>931</v>
+      <c r="A241" s="3" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
-        <v>932</v>
+      <c r="A242" s="3" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
-        <v>933</v>
+      <c r="A243" s="3" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>934</v>
+      <c r="A244" s="3" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
-        <v>935</v>
+      <c r="A245" s="3" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>936</v>
+      <c r="A246" s="3" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
-        <v>937</v>
+      <c r="A247" s="3" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>938</v>
+      <c r="A248" s="3" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>939</v>
+      <c r="A249" s="3" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7006,7 +7347,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data-raw/parametry_skrot_do_pracy.xlsx
+++ b/data-raw/parametry_skrot_do_pracy.xlsx
@@ -26,10 +26,10 @@
     <t xml:space="preserve">fullname</t>
   </si>
   <si>
-    <t xml:space="preserve">abbr_ang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullname_ang</t>
+    <t xml:space="preserve">abbr_eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullname_eng</t>
   </si>
   <si>
     <t xml:space="preserve">Absolutna temperatura maksymalna [C]</t>
@@ -1445,23 +1445,7 @@
     <t xml:space="preserve">StatusRWSN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Status of s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">now water equivalent</t>
-    </r>
+    <t xml:space="preserve">Status of snow water equivalent</t>
   </si>
   <si>
     <t xml:space="preserve">Status pomiaru SADD</t>
@@ -1470,23 +1454,7 @@
     <t xml:space="preserve">StatusSADD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Status of number of days with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> rime </t>
-    </r>
+    <t xml:space="preserve">Status of number of days with rime </t>
   </si>
   <si>
     <t xml:space="preserve">Status pomiaru SADZ</t>
@@ -1576,23 +1544,7 @@
     <t xml:space="preserve">StatusSZRD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Status of number of days with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hoarfrost</t>
-    </r>
+    <t xml:space="preserve">Status of number of days with hoarfrost</t>
   </si>
   <si>
     <t xml:space="preserve">Status pomiaru SZRO</t>
@@ -2123,7 +2075,7 @@
     <t xml:space="preserve">Relative humidity [%]</t>
   </si>
   <si>
-    <t xml:space="preserve">Wskaźnik lodu [L/W]</t>
+    <t xml:space="preserve">Wskaznik lodu [L/W]</t>
   </si>
   <si>
     <t xml:space="preserve">ice_indicator</t>
@@ -2132,7 +2084,7 @@
     <t xml:space="preserve">Ice indicator [L/W]</t>
   </si>
   <si>
-    <t xml:space="preserve">Wskaźnik wentylacji [W/N]</t>
+    <t xml:space="preserve">Wskaznik wentylacji [W/N]</t>
   </si>
   <si>
     <t xml:space="preserve">ventil_indicator</t>
@@ -3036,7 +2988,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3057,11 +3009,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3113,7 +3060,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3122,15 +3069,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3213,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C189" activeCellId="0" sqref="C189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5025,7 +4968,7 @@
       <c r="B164" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5135,7 +5078,7 @@
       <c r="B174" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5168,7 +5111,7 @@
       <c r="B177" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5179,7 +5122,7 @@
       <c r="B178" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5190,7 +5133,7 @@
       <c r="B179" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5201,7 +5144,7 @@
       <c r="B180" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5212,7 +5155,7 @@
       <c r="B181" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5223,7 +5166,7 @@
       <c r="B182" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5234,7 +5177,7 @@
       <c r="B183" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5245,7 +5188,7 @@
       <c r="B184" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>540</v>
       </c>
     </row>
@@ -5498,7 +5441,7 @@
       <c r="B207" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>607</v>
       </c>
     </row>
@@ -5509,7 +5452,7 @@
       <c r="B208" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>610</v>
       </c>
     </row>
@@ -6037,1247 +5980,1247 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>985</v>
       </c>
     </row>
